--- a/actividad_2.xlsx
+++ b/actividad_2.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[21, 20, 12, 21, 80]</t>
+          <t>[36, 8, 60, 72, 16]</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -531,7 +531,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[5, 8], [4, 6]]</t>
+          <t>[[4, 5], [2, 9]]</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[6, 1, 1], [2, 9, 2], [9, 9, 6]]</t>
+          <t>[[6, 8, 3], [6, 2, 8], [2, 3, 1]]</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0.9863512332411599, 0.5659538933880702, 0.9614072839200998]</t>
+          <t>[0.6450486494635955, 0.8831311558159988, 0.6895761808992169, 0.6977844898207737, 0.9206305415801153]</t>
         </is>
       </c>
     </row>
